--- a/biology/Zoologie/Ganlea/Ganlea.xlsx
+++ b/biology/Zoologie/Ganlea/Ganlea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ganlea est un genre éteint de la famille, également éteinte, des Amphipithecidae, des primates anthropoïdes qui vivaient en Asie il y a environ 38 millions d'années à la fin de l'Éocène[2]. Sa découverte conforte l'hypothèse selon laquelle les anthropoïdes seraient originaires d'Asie, sans pour autant remettre en cause l'émergence africaine de la lignée humaine[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ganlea est un genre éteint de la famille, également éteinte, des Amphipithecidae, des primates anthropoïdes qui vivaient en Asie il y a environ 38 millions d'années à la fin de l'Éocène. Sa découverte conforte l'hypothèse selon laquelle les anthropoïdes seraient originaires d'Asie, sans pour autant remettre en cause l'émergence africaine de la lignée humaine.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,7 +551,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) K. Christopher Beard, Laurent Marivaux, Yaowalak Chaimanee, Jean-Jacques Jaeger, Bernard Marandat, Paul Tafforeau, Aung Naing Soe, Soe Thura Tun et Aung Aung Kyaw, « A new primate from the Eocene Pondaung Formation of Myanmar and the monophyly of Burmese amphipithecids », Proceedings of the Royal Society B, Royal Society, vol. 276, no 1671,‎ 22 septembre 2009, p. 3285-3294 (ISSN 0962-8452 et 1471-2954, PMID 19570790, PMCID 2817178, DOI 10.1098/RSPB.2009.0836)</t>
         </is>
